--- a/public/files/excel-template/student-template.xlsx
+++ b/public/files/excel-template/student-template.xlsx
@@ -2,19 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hdtl\edulite\public\files\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF241C-BA74-4171-B115-0E7C213A4B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A75FB-A0A6-4C45-867E-49EC261B7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{76F13B92-220A-4085-B44B-8CF4A5FB621A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{1C324DF2-3039-4A3F-9B82-E80645A1D1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Note" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="religion">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -50,26 +54,59 @@
     <t>address</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>religion</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>dob</t>
   </si>
   <si>
     <t>gsm</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
+    <t>RELIGION</t>
+  </si>
+  <si>
+    <t>MUSLIM</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENDER </t>
+  </si>
+  <si>
+    <t>the corresponding number represent each religion</t>
+  </si>
+  <si>
+    <t>the number coresponding number represent each gender</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,21 +122,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,14 +197,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,61 +573,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231FCEAD-7AEC-4E6A-9902-E8A9E5227095}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ADE2A2-9433-489D-85BA-300E2C1A5D2F}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{93168BDD-3B6F-4444-8ADC-5CCE9115F604}">
-      <formula1>"female,male"</formula1>
+  <dataValidations count="8">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="address is compulsary and not more than 255 characters" sqref="H1" xr:uid="{52520B0F-9BB6-4FCF-9260-6A02E8DA64FE}">
+      <formula1>256</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 or empty for day and 2 fir boarding" promptTitle="student type" sqref="K1" xr:uid="{B2B65884-C8D2-44B7-A6F3-9AAB8C1CF01B}">
+      <formula1>1</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="maximum of 30 character" sqref="A1:A1048576" xr:uid="{B72CFBC5-CF84-43C7-8F6E-056FF52A0DF5}">
+      <formula1>31</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThan" showInputMessage="1" showErrorMessage="1" error="maximum of 30 character" sqref="B1:B1048576" xr:uid="{DB63D0C7-7524-4AB5-A4CB-65AB9E945E8D}">
+      <formula1>30</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="10 digits, omit the first 0" promptTitle="phone number" sqref="D1:D1048576" xr:uid="{43CDF57B-DA82-4DC6-96E3-37C2051184AD}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="enter date of birth correctly" promptTitle="date of birth" sqref="E1:E1048576" xr:uid="{4EDD97AE-5E14-4242-9056-943F15DB3A16}">
+      <formula1>21916</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="use 1 for Muslim, 2 for Christain and 3 for Other" sqref="I1:I1048576" xr:uid="{41714BF3-1A65-4F87-ACDF-00E9C2EAAF26}">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="use 1 for Male, 2 for Female and 3 for other" sqref="J1:J1048576" xr:uid="{01B27EB4-B425-4F0D-9241-AD3C251491B9}">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F92C38D-C46A-4428-BEBF-160F93C017C9}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>